--- a/assign1/doc/measures.xlsx
+++ b/assign1/doc/measures.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -217,15 +217,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -388,124 +388,18 @@
 </table>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.67"/>
@@ -631,7 +525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="n">
         <v>600</v>
@@ -665,9 +559,15 @@
       <c r="M5" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="N5" s="6" t="n">
+        <v>89.68</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>70066740863</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>106487365376</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6" t="n">
         <v>600</v>
@@ -679,7 +579,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="n">
         <v>1000</v>
@@ -713,9 +613,15 @@
       <c r="M6" s="6" t="n">
         <v>256</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="N6" s="6" t="n">
+        <v>91.98</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>69629549486</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>115172195093</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6" t="n">
         <v>1000</v>
@@ -1307,10 +1213,19 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="L21" s="6" t="n">
+        <f aca="false">AVERAGE(M21:O21)</f>
+        <v>91.9793333333333</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>89.691</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>98.783</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>87.464</v>
+      </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6" t="n">
@@ -1338,10 +1253,19 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="L22" s="6" t="n">
+        <f aca="false">AVERAGE(M22:O22)</f>
+        <v>69629549486.3333</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>69488621365</v>
+      </c>
+      <c r="N22" s="7" t="n">
+        <v>69886426393</v>
+      </c>
+      <c r="O22" s="7" t="n">
+        <v>69513600701</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6" t="n">
@@ -1367,10 +1291,19 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="L23" s="6" t="n">
+        <f aca="false">AVERAGE(M23:O23)</f>
+        <v>115172195093</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>101954945509</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>111788148004</v>
+      </c>
+      <c r="O23" s="7" t="n">
+        <v>131773491766</v>
+      </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6" t="n">

--- a/assign1/doc/measures.xlsx
+++ b/assign1/doc/measures.xlsx
@@ -163,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +194,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -395,11 +399,11 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.67"/>
@@ -543,14 +547,14 @@
       <c r="G5" s="6" t="n">
         <v>600</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>27095689</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>59844000</v>
+      <c r="H5" s="0" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>27111997</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>57787192</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="n">
@@ -559,16 +563,12 @@
       <c r="M5" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="N5" s="6" t="n">
-        <v>89.68</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>70066740863</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>106487365376</v>
-      </c>
-      <c r="Q5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" s="6" t="n">
         <v>600</v>
       </c>
@@ -597,14 +597,14 @@
       <c r="G6" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>125487563</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>278504989</v>
+      <c r="H6" s="0" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>125734561</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>267747076</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="n">
@@ -613,16 +613,12 @@
       <c r="M6" s="6" t="n">
         <v>256</v>
       </c>
-      <c r="N6" s="6" t="n">
-        <v>91.98</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>69629549486</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>115172195093</v>
-      </c>
-      <c r="Q6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" s="6" t="n">
         <v>1000</v>
       </c>
@@ -633,7 +629,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="n">
         <v>1400</v>
@@ -651,14 +647,14 @@
       <c r="G7" s="6" t="n">
         <v>1400</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>344203100</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>756884728</v>
+      <c r="H7" s="0" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>346116682</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>708816444</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="n">
@@ -668,9 +664,11 @@
         <v>512</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" s="6" t="n">
         <v>1400</v>
       </c>
@@ -681,7 +679,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="n">
         <v>1800</v>
@@ -699,14 +697,14 @@
       <c r="G8" s="6" t="n">
         <v>1800</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>731317297</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>1582469061</v>
+      <c r="H8" s="0" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>745271243</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>1439900904</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="n">
@@ -716,9 +714,11 @@
         <v>128</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" s="6" t="n">
         <v>1800</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="n">
         <v>2200</v>
@@ -747,14 +747,14 @@
       <c r="G9" s="6" t="n">
         <v>2200</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>1334965239</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>2869607846</v>
+      <c r="H9" s="0" t="n">
+        <v>6.473</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>2073886158</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>2561167064</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="n">
@@ -764,9 +764,11 @@
         <v>256</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" s="6" t="n">
         <v>2200</v>
       </c>
@@ -777,7 +779,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>2600</v>
       </c>
@@ -794,14 +796,14 @@
       <c r="G10" s="6" t="n">
         <v>2600</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>2203267700</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>4721863215</v>
+      <c r="H10" s="0" t="n">
+        <v>10.819</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>4412845122</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>4198690629</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="n">
@@ -811,9 +813,11 @@
         <v>512</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R10" s="6" t="n">
         <v>2600</v>
       </c>
@@ -824,7 +828,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <v>3000</v>
       </c>
@@ -841,14 +845,14 @@
       <c r="G11" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>3384302638</v>
-      </c>
-      <c r="J11" s="7" t="n">
-        <v>7190187541</v>
+      <c r="H11" s="0" t="n">
+        <v>16.478</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>6780698787</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>6296071144</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="n">
@@ -858,9 +862,11 @@
         <v>128</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" s="6" t="n">
         <v>3000</v>
       </c>
@@ -871,7 +877,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -880,14 +886,14 @@
       <c r="G12" s="6" t="n">
         <v>4096</v>
       </c>
-      <c r="H12" s="6" t="n">
-        <v>67.6</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>8637237294</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>18214065974</v>
+      <c r="H12" s="0" t="n">
+        <v>41.229</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>17553265709</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>16249690528</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="n">
@@ -897,9 +903,11 @@
         <v>256</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" s="6" t="n">
         <v>4096</v>
       </c>
@@ -910,7 +918,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -919,14 +927,14 @@
       <c r="G13" s="6" t="n">
         <v>6144</v>
       </c>
-      <c r="H13" s="6" t="n">
-        <v>227.04</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>29129375436</v>
-      </c>
-      <c r="J13" s="7" t="n">
-        <v>61368125691</v>
+      <c r="H13" s="0" t="n">
+        <v>139.299</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>59151207256</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>54420319247</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="n">
@@ -936,9 +944,11 @@
         <v>512</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" s="6" t="n">
         <v>6144</v>
       </c>
@@ -949,7 +959,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -960,15 +970,9 @@
       <c r="G14" s="6" t="n">
         <v>8192</v>
       </c>
-      <c r="H14" s="6" t="n">
-        <v>537.18</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>69001196060</v>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v>145261351152</v>
-      </c>
+      <c r="H14" s="0"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="n">
         <v>10240</v>
@@ -977,9 +981,11 @@
         <v>128</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" s="6" t="n">
         <v>8192</v>
       </c>
@@ -990,7 +996,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1003,15 +1009,9 @@
       <c r="G15" s="6" t="n">
         <v>10240</v>
       </c>
-      <c r="H15" s="6" t="n">
-        <v>1074.36</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>138002392120</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>290522702304</v>
-      </c>
+      <c r="H15" s="0"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="n">
         <v>10240</v>
@@ -1020,9 +1020,11 @@
         <v>256</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R15" s="6" t="n">
         <v>10240</v>
       </c>
@@ -1053,9 +1055,11 @@
         <v>512</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1198,7 +1202,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <v>2600</v>
       </c>
@@ -1213,19 +1217,10 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6" t="n">
-        <f aca="false">AVERAGE(M21:O21)</f>
-        <v>91.9793333333333</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>89.691</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>98.783</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>87.464</v>
-      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6" t="n">
@@ -1238,7 +1233,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <v>3000</v>
       </c>
@@ -1253,19 +1248,10 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6" t="n">
-        <f aca="false">AVERAGE(M22:O22)</f>
-        <v>69629549486.3333</v>
-      </c>
-      <c r="M22" s="7" t="n">
-        <v>69488621365</v>
-      </c>
-      <c r="N22" s="7" t="n">
-        <v>69886426393</v>
-      </c>
-      <c r="O22" s="7" t="n">
-        <v>69513600701</v>
-      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6" t="n">
@@ -1278,7 +1264,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1291,19 +1277,10 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6" t="n">
-        <f aca="false">AVERAGE(M23:O23)</f>
-        <v>115172195093</v>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v>101954945509</v>
-      </c>
-      <c r="N23" s="7" t="n">
-        <v>111788148004</v>
-      </c>
-      <c r="O23" s="7" t="n">
-        <v>131773491766</v>
-      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6" t="n">
@@ -1458,7 +1435,7 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1506,7 +1483,7 @@
       <c r="X30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>

--- a/assign1/doc/measures.xlsx
+++ b/assign1/doc/measures.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Medições Multiplicação por Bloco</t>
   </si>
   <si>
-    <t xml:space="preserve">Medições Mulitplicação Paralelo</t>
+    <t xml:space="preserve">Medições Multiplicação Paralelo</t>
   </si>
   <si>
     <t xml:space="preserve">C++</t>
@@ -196,7 +196,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -221,15 +221,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -392,18 +392,124 @@
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X12" activeCellId="0" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.67"/>
@@ -529,7 +635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="n">
         <v>600</v>
@@ -547,7 +653,7 @@
       <c r="G5" s="6" t="n">
         <v>600</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.115</v>
       </c>
       <c r="I5" s="8" t="n">
@@ -566,9 +672,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="6"/>
       <c r="R5" s="6" t="n">
         <v>600</v>
       </c>
@@ -579,7 +683,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="n">
         <v>1000</v>
@@ -597,7 +701,7 @@
       <c r="G6" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.475</v>
       </c>
       <c r="I6" s="8" t="n">
@@ -616,9 +720,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q6" s="6"/>
       <c r="R6" s="6" t="n">
         <v>1000</v>
       </c>
@@ -629,7 +731,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="n">
         <v>1400</v>
@@ -647,7 +749,7 @@
       <c r="G7" s="6" t="n">
         <v>1400</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>1.583</v>
       </c>
       <c r="I7" s="8" t="n">
@@ -666,9 +768,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7" s="6"/>
       <c r="R7" s="6" t="n">
         <v>1400</v>
       </c>
@@ -679,7 +779,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="n">
         <v>1800</v>
@@ -697,7 +797,7 @@
       <c r="G8" s="6" t="n">
         <v>1800</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>3.557</v>
       </c>
       <c r="I8" s="8" t="n">
@@ -716,9 +816,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" s="6"/>
       <c r="R8" s="6" t="n">
         <v>1800</v>
       </c>
@@ -729,7 +827,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="n">
         <v>2200</v>
@@ -747,7 +845,7 @@
       <c r="G9" s="6" t="n">
         <v>2200</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>6.473</v>
       </c>
       <c r="I9" s="8" t="n">
@@ -766,9 +864,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6" t="n">
         <v>2200</v>
       </c>
@@ -779,7 +875,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>2600</v>
       </c>
@@ -796,7 +892,7 @@
       <c r="G10" s="6" t="n">
         <v>2600</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>10.819</v>
       </c>
       <c r="I10" s="8" t="n">
@@ -815,9 +911,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="6"/>
       <c r="R10" s="6" t="n">
         <v>2600</v>
       </c>
@@ -828,7 +922,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <v>3000</v>
       </c>
@@ -845,7 +939,7 @@
       <c r="G11" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>16.478</v>
       </c>
       <c r="I11" s="8" t="n">
@@ -864,9 +958,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="6"/>
       <c r="R11" s="6" t="n">
         <v>3000</v>
       </c>
@@ -877,7 +969,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -886,7 +978,7 @@
       <c r="G12" s="6" t="n">
         <v>4096</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>41.229</v>
       </c>
       <c r="I12" s="8" t="n">
@@ -905,9 +997,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q12" s="6"/>
       <c r="R12" s="6" t="n">
         <v>4096</v>
       </c>
@@ -918,7 +1008,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -927,7 +1017,7 @@
       <c r="G13" s="6" t="n">
         <v>6144</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>139.299</v>
       </c>
       <c r="I13" s="8" t="n">
@@ -946,9 +1036,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q13" s="6"/>
       <c r="R13" s="6" t="n">
         <v>6144</v>
       </c>
@@ -959,7 +1047,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -970,7 +1058,6 @@
       <c r="G14" s="6" t="n">
         <v>8192</v>
       </c>
-      <c r="H14" s="0"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="6"/>
@@ -983,9 +1070,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6" t="n">
         <v>8192</v>
       </c>
@@ -996,7 +1081,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1094,6 @@
       <c r="G15" s="6" t="n">
         <v>10240</v>
       </c>
-      <c r="H15" s="0"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="6"/>
@@ -1022,9 +1106,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6" t="n">
         <v>10240</v>
       </c>
@@ -1057,9 +1139,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1202,7 +1282,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <v>2600</v>
       </c>
@@ -1233,7 +1313,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <v>3000</v>
       </c>
@@ -1264,7 +1344,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1484,22 +1564,6 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/assign1/doc/measures.xlsx
+++ b/assign1/doc/measures.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Faculdade\3Ano\CPD\g12\assign1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA995B10-06E8-4AC3-AECB-1AC5E20BBC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256AC175-CA42-49CF-A664-0ECA229FD9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="14808" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -129,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -157,6 +168,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,7 +177,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -329,7 +353,7 @@
   <autoFilter ref="G19:H26" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Tamanho"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Média Tempo (s)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Média Tempo (s)" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -341,9 +365,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name=" Tamanho "/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Tamanho do Bloco"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Média Tempo (s)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Média L1 DCM " dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Média L2 DCM " dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Média Tempo (s)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Média L1 DCM " dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Média L2 DCM " dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -354,11 +378,15 @@
   <autoFilter ref="R4:X15" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name=" Tamanho "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Média Tempo (s)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Média L1 DCM " dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Média L2 DCM " dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Mflops"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Speedup"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Média Tempo (s)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Média L1 DCM " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Média L2 DCM " dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Mflops" dataDxfId="3">
+      <calculatedColumnFormula>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Speedup" dataDxfId="1">
+      <calculatedColumnFormula>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Eficiência"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -370,11 +398,15 @@
   <autoFilter ref="R19:W30" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name=" Tamanho "/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Média Tempo (s)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Média L1 DCM " dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Média L2 DCM " dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Mflops"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Speedup"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Média Tempo (s)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Média L1 DCM " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Média L2 DCM " dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Mflops" dataDxfId="2">
+      <calculatedColumnFormula>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Speedup" dataDxfId="0">
+      <calculatedColumnFormula>H5/Table8[[#This Row],[Média Tempo (s)]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -492,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="81" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,16 +538,16 @@
     <col min="10" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="29.33203125" customWidth="1"/>
     <col min="13" max="13" width="21.5546875" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" style="12" customWidth="1"/>
     <col min="15" max="15" width="19.6640625" style="6" customWidth="1"/>
     <col min="16" max="16" width="18" style="6" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
     <col min="18" max="18" width="28.44140625" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" style="12" customWidth="1"/>
     <col min="20" max="20" width="19.6640625" style="6" customWidth="1"/>
     <col min="21" max="21" width="18" style="6" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="18" style="11" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" style="12" customWidth="1"/>
     <col min="24" max="24" width="13.33203125" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
     <col min="26" max="26" width="9.109375" customWidth="1"/>
@@ -592,7 +624,7 @@
       <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="5" t="s">
@@ -605,7 +637,7 @@
       <c r="R4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="5" t="s">
@@ -614,10 +646,10 @@
       <c r="U4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="4" t="s">
@@ -658,7 +690,7 @@
       <c r="M5" s="4">
         <v>128</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="13">
         <v>31.34</v>
       </c>
       <c r="O5" s="5">
@@ -671,7 +703,7 @@
       <c r="R5" s="4">
         <v>600</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="T5" s="5">
@@ -680,8 +712,14 @@
       <c r="U5" s="5">
         <v>7174854</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
+      <c r="V5" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>24000</v>
+      </c>
+      <c r="W5" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>6.3888888888888893</v>
+      </c>
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -718,7 +756,7 @@
       <c r="M6" s="4">
         <v>256</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="13">
         <v>27.263999999999999</v>
       </c>
       <c r="O6" s="5">
@@ -731,7 +769,7 @@
       <c r="R6" s="4">
         <v>1000</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="13">
         <v>7.8E-2</v>
       </c>
       <c r="T6" s="5">
@@ -740,8 +778,14 @@
       <c r="U6" s="5">
         <v>32649054</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="V6" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>25641.025641025641</v>
+      </c>
+      <c r="W6" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>6.0897435897435894</v>
+      </c>
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -778,7 +822,7 @@
       <c r="M7" s="4">
         <v>512</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="13">
         <v>28.515999999999998</v>
       </c>
       <c r="O7" s="5">
@@ -791,7 +835,7 @@
       <c r="R7" s="4">
         <v>1400</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="13">
         <v>0.24399999999999999</v>
       </c>
       <c r="T7" s="5">
@@ -800,8 +844,14 @@
       <c r="U7" s="5">
         <v>87413699</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="V7" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>22491.803278688523</v>
+      </c>
+      <c r="W7" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>6.4877049180327866</v>
+      </c>
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -838,7 +888,7 @@
       <c r="M8" s="4">
         <v>128</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="13">
         <v>108.801</v>
       </c>
       <c r="O8" s="5">
@@ -851,7 +901,7 @@
       <c r="R8" s="4">
         <v>1800</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="13">
         <v>0.55200000000000005</v>
       </c>
       <c r="T8" s="5">
@@ -860,8 +910,14 @@
       <c r="U8" s="5">
         <v>184974373</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="V8" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>21130.434782608696</v>
+      </c>
+      <c r="W8" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>6.4438405797101446</v>
+      </c>
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -898,7 +954,7 @@
       <c r="M9" s="4">
         <v>256</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="13">
         <v>94.430999999999997</v>
       </c>
       <c r="O9" s="5">
@@ -911,7 +967,7 @@
       <c r="R9" s="4">
         <v>2200</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="13">
         <v>1.0649999999999999</v>
       </c>
       <c r="T9" s="5">
@@ -920,8 +976,14 @@
       <c r="U9" s="5">
         <v>331133590</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+      <c r="V9" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>19996.244131455398</v>
+      </c>
+      <c r="W9" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>6.0779342723004692</v>
+      </c>
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -957,7 +1019,7 @@
       <c r="M10" s="4">
         <v>512</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="13">
         <v>96.498999999999995</v>
       </c>
       <c r="O10" s="5">
@@ -970,7 +1032,7 @@
       <c r="R10" s="4">
         <v>2600</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="13">
         <v>1.76</v>
       </c>
       <c r="T10" s="5">
@@ -979,8 +1041,14 @@
       <c r="U10" s="5">
         <v>548448835</v>
       </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="V10" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>19972.727272727272</v>
+      </c>
+      <c r="W10" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>6.1471590909090912</v>
+      </c>
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -1016,7 +1084,7 @@
       <c r="M11" s="4">
         <v>128</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="13">
         <v>303.67700000000002</v>
       </c>
       <c r="O11" s="5">
@@ -1029,7 +1097,7 @@
       <c r="R11" s="4">
         <v>3000</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="13">
         <v>2.8159999999999998</v>
       </c>
       <c r="T11" s="5">
@@ -1038,8 +1106,14 @@
       <c r="U11" s="5">
         <v>836080513</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="V11" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>19176.136363636364</v>
+      </c>
+      <c r="W11" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>5.8515625000000009</v>
+      </c>
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -1067,7 +1141,7 @@
       <c r="M12" s="4">
         <v>256</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="13">
         <v>43.165999999999997</v>
       </c>
       <c r="O12" s="5">
@@ -1080,7 +1154,7 @@
       <c r="R12" s="4">
         <v>4096</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="13">
         <v>7.5140000000000002</v>
       </c>
       <c r="T12" s="5">
@@ -1089,8 +1163,14 @@
       <c r="U12" s="5">
         <v>2132961687</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="V12" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>18291.050501996273</v>
+      </c>
+      <c r="W12" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>5.4869576789992012</v>
+      </c>
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
@@ -1118,7 +1198,7 @@
       <c r="M13" s="4">
         <v>512</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="13">
         <v>347.63099999999997</v>
       </c>
       <c r="O13" s="5">
@@ -1131,7 +1211,7 @@
       <c r="R13" s="4">
         <v>6144</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="13">
         <v>29.641999999999999</v>
       </c>
       <c r="T13" s="5">
@@ -1140,8 +1220,14 @@
       <c r="U13" s="5">
         <v>7049828317</v>
       </c>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
+      <c r="V13" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>15648.622494028743</v>
+      </c>
+      <c r="W13" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>4.6993792591593015</v>
+      </c>
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -1164,7 +1250,7 @@
       <c r="M14" s="4">
         <v>128</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="13">
         <v>505.63</v>
       </c>
       <c r="O14" s="5">
@@ -1177,7 +1263,7 @@
       <c r="R14" s="4">
         <v>8192</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="13">
         <v>82.798000000000002</v>
       </c>
       <c r="T14" s="5">
@@ -1186,8 +1272,14 @@
       <c r="U14" s="5">
         <v>16672832914</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+      <c r="V14" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>13279.446698905771</v>
+      </c>
+      <c r="W14" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>0</v>
+      </c>
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -1212,7 +1304,7 @@
       <c r="M15" s="4">
         <v>256</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="13">
         <v>431.71</v>
       </c>
       <c r="O15" s="5">
@@ -1225,7 +1317,7 @@
       <c r="R15" s="4">
         <v>10240</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="13">
         <v>178.49100000000001</v>
       </c>
       <c r="T15" s="5">
@@ -1234,8 +1326,14 @@
       <c r="U15" s="5">
         <v>31519192325</v>
       </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
+      <c r="V15" s="7">
+        <f>(2*Table7[[#This Row],[ Tamanho ]]^3)/(Table7[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>12031.32733863332</v>
+      </c>
+      <c r="W15" s="13">
+        <f>Table4[[#This Row],[Média Tempo (s)]]/Table7[[#This Row],[Média Tempo (s)]]</f>
+        <v>0</v>
+      </c>
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
@@ -1259,16 +1357,16 @@
       <c r="M16" s="4">
         <v>512</v>
       </c>
-      <c r="N16" s="12"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="13"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="13"/>
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
@@ -1288,16 +1386,16 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="12"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="12"/>
+      <c r="S17" s="13"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="13"/>
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
@@ -1319,18 +1417,18 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="12"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="12"/>
+      <c r="S18" s="13"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="13"/>
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
@@ -1354,14 +1452,14 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S19" s="12" t="s">
+      <c r="S19" s="13" t="s">
         <v>7</v>
       </c>
       <c r="T19" s="5" t="s">
@@ -1370,10 +1468,10 @@
       <c r="U19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="V19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="W19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="X19" s="4" t="s">
@@ -1401,18 +1499,30 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="12"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4">
         <v>600</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="S20" s="13">
+        <v>0.121</v>
+      </c>
+      <c r="T20" s="5">
+        <v>12687581</v>
+      </c>
+      <c r="U20" s="5">
+        <v>43001109</v>
+      </c>
+      <c r="V20" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>3570.2479338842977</v>
+      </c>
+      <c r="W20" s="13">
+        <f>H5/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>0.95041322314049592</v>
+      </c>
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
@@ -1436,18 +1546,30 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="12"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4">
         <v>1000</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
+      <c r="S21" s="13">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="T21" s="5">
+        <v>57322579</v>
+      </c>
+      <c r="U21" s="5">
+        <v>186063316</v>
+      </c>
+      <c r="V21" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>3898.6354775828459</v>
+      </c>
+      <c r="W21" s="13">
+        <f>H6/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>0.92592592592592582</v>
+      </c>
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
@@ -1471,18 +1593,30 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4">
         <v>1400</v>
       </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
+      <c r="S22" s="13">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="T22" s="5">
+        <v>149451412</v>
+      </c>
+      <c r="U22" s="5">
+        <v>464926561</v>
+      </c>
+      <c r="V22" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>3897.7272727272725</v>
+      </c>
+      <c r="W22" s="13">
+        <f>H7/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>1.1242897727272727</v>
+      </c>
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.3">
@@ -1502,18 +1636,30 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4">
         <v>1800</v>
       </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
+      <c r="S23" s="13">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="T23" s="5">
+        <v>309991421</v>
+      </c>
+      <c r="U23" s="5">
+        <v>914588639</v>
+      </c>
+      <c r="V23" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>4315.2053274139844</v>
+      </c>
+      <c r="W23" s="13">
+        <f>H8/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>1.3159452460229375</v>
+      </c>
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.3">
@@ -1533,18 +1679,30 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="12"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4">
         <v>2200</v>
       </c>
-      <c r="S24" s="12"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="S24" s="13">
+        <v>4.6289999999999996</v>
+      </c>
+      <c r="T24" s="5">
+        <v>514954420</v>
+      </c>
+      <c r="U24" s="5">
+        <v>1457204131</v>
+      </c>
+      <c r="V24" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>4600.5616763879889</v>
+      </c>
+      <c r="W24" s="13">
+        <f>H9/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>1.398358176712033</v>
+      </c>
       <c r="X24" s="4"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.3">
@@ -1564,18 +1722,30 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="12"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4">
         <v>2600</v>
       </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="S25" s="13">
+        <v>7.4480000000000004</v>
+      </c>
+      <c r="T25" s="5">
+        <v>782717803</v>
+      </c>
+      <c r="U25" s="5">
+        <v>2138071919</v>
+      </c>
+      <c r="V25" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>4719.6562835660579</v>
+      </c>
+      <c r="W25" s="13">
+        <f>H10/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>1.4526047261009667</v>
+      </c>
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
@@ -1595,18 +1765,30 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="12"/>
+      <c r="N26" s="13"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4">
         <v>3000</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="S26" s="13">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="T26" s="5">
+        <v>1207459440</v>
+      </c>
+      <c r="U26" s="5">
+        <v>3004972234</v>
+      </c>
+      <c r="V26" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>56722.689075630253</v>
+      </c>
+      <c r="W26" s="13">
+        <f>H11/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>17.308823529411768</v>
+      </c>
       <c r="X26" s="4"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
@@ -1622,18 +1804,30 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="12"/>
+      <c r="N27" s="13"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4">
         <v>4096</v>
       </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="S27" s="13">
+        <v>27.762</v>
+      </c>
+      <c r="T27" s="5">
+        <v>2927306005</v>
+      </c>
+      <c r="U27" s="5">
+        <v>6236507766</v>
+      </c>
+      <c r="V27" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>4950.614273899575</v>
+      </c>
+      <c r="W27" s="13">
+        <f>H12/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>1.4850875297168791</v>
+      </c>
       <c r="X27" s="4"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
@@ -1649,18 +1843,30 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="12"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4">
         <v>6144</v>
       </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
+      <c r="S28" s="13">
+        <v>95.12</v>
+      </c>
+      <c r="T28" s="5">
+        <v>9667315438</v>
+      </c>
+      <c r="U28" s="5">
+        <v>19660774794</v>
+      </c>
+      <c r="V28" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>4876.5398230445753</v>
+      </c>
+      <c r="W28" s="13">
+        <f>H13/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>1.464455424726661</v>
+      </c>
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.3">
@@ -1673,18 +1879,30 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4">
         <v>8192</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
+      <c r="S29" s="13">
+        <v>229.101</v>
+      </c>
+      <c r="T29" s="5">
+        <v>22984441740</v>
+      </c>
+      <c r="U29" s="5">
+        <v>46412806000</v>
+      </c>
+      <c r="V29" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>4799.244122793004</v>
+      </c>
+      <c r="W29" s="13">
+        <f>H14/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>0</v>
+      </c>
       <c r="X29" s="4"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.3">
@@ -1697,18 +1915,30 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="12"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4">
         <v>10240</v>
       </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
+      <c r="S30" s="13">
+        <v>450.16300000000001</v>
+      </c>
+      <c r="T30" s="5">
+        <v>43823951312</v>
+      </c>
+      <c r="U30" s="5">
+        <v>80218070755</v>
+      </c>
+      <c r="V30" s="7">
+        <f>(2*Table8[[#This Row],[ Tamanho ]]^3)/(Table8[[#This Row],[Média Tempo (s)]]*10^6)</f>
+        <v>4770.4579185761604</v>
+      </c>
+      <c r="W30" s="13">
+        <f>H15/Table8[[#This Row],[Média Tempo (s)]]</f>
+        <v>0</v>
+      </c>
       <c r="X30" s="4"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.3">
